--- a/Optimizer/Optimizer.Runner/Input/Sale.xlsx
+++ b/Optimizer/Optimizer.Runner/Input/Sale.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PK_SEM_8\MO\projekt-repo\Optimizer\Optimizer.Runner\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC8EA03-BFB0-4378-9081-D339471B5A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FFC3A9-95C8-419E-8650-5A0E4125F368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -63,16 +74,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
-    <t>Dzien</t>
-  </si>
-  <si>
-    <t>Sala</t>
-  </si>
-  <si>
     <t>Obrony (liczba)</t>
   </si>
   <si>
     <t>10,10</t>
+  </si>
+  <si>
+    <t>Sala (Nr)</t>
+  </si>
+  <si>
+    <t>Dzień</t>
   </si>
 </sst>
 </file>
@@ -127,13 +138,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -150,11 +177,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{552B199C-4222-4030-9B15-9FA0F319BD1E}" name="Tabela1" displayName="Tabela1" ref="A1:C6" totalsRowShown="0">
   <autoFilter ref="A1:C6" xr:uid="{552B199C-4222-4030-9B15-9FA0F319BD1E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{330E2C5F-36C5-4056-B2A9-5A6188E3AA10}" name="Dzien"/>
-    <tableColumn id="2" xr3:uid="{A2A4794F-5785-48CF-8872-588C6BFB5B65}" name="Sala"/>
-    <tableColumn id="3" xr3:uid="{29FAEEE3-4F2B-47B2-BC5B-405E2A378896}" name="Obrony (liczba)"/>
+    <tableColumn id="1" xr3:uid="{330E2C5F-36C5-4056-B2A9-5A6188E3AA10}" name="Dzień" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A2A4794F-5785-48CF-8872-588C6BFB5B65}" name="Sala (Nr)" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{29FAEEE3-4F2B-47B2-BC5B-405E2A378896}" name="Obrony (liczba)" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -423,88 +450,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4DF94265-7147-4B98-9242-861F95CE45AF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4DF94265-7147-4B98-9242-861F95CE45AF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{545DD37C-6505-457E-815A-74BD277B554F}">
+            <x14:iconSet iconSet="5Boxes">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>40</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>60</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Optimizer/Optimizer.Runner/Input/Sale.xlsx
+++ b/Optimizer/Optimizer.Runner/Input/Sale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PK_SEM_8\MO\projekt-repo\Optimizer\Optimizer.Runner\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FFC3A9-95C8-419E-8650-5A0E4125F368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A204B02-F768-4808-A2CC-609CE0C7E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>Obrony (liczba)</t>
   </si>
@@ -152,10 +152,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -174,12 +174,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{552B199C-4222-4030-9B15-9FA0F319BD1E}" name="Tabela1" displayName="Tabela1" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{552B199C-4222-4030-9B15-9FA0F319BD1E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{552B199C-4222-4030-9B15-9FA0F319BD1E}" name="Tabela1" displayName="Tabela1" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9" xr:uid="{552B199C-4222-4030-9B15-9FA0F319BD1E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{330E2C5F-36C5-4056-B2A9-5A6188E3AA10}" name="Dzień" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{A2A4794F-5785-48CF-8872-588C6BFB5B65}" name="Sala (Nr)" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{29FAEEE3-4F2B-47B2-BC5B-405E2A378896}" name="Obrony (liczba)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A2A4794F-5785-48CF-8872-588C6BFB5B65}" name="Sala (Nr)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{29FAEEE3-4F2B-47B2-BC5B-405E2A378896}" name="Obrony (liczba)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,8 +523,41 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>10</v>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
